--- a/Projects/JNJANZ_SAND/Data/eye_level_jnjanz.xlsx
+++ b/Projects/JNJANZ_SAND/Data/eye_level_jnjanz.xlsx
@@ -106,9 +106,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -128,18 +136,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -157,68 +166,68 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>3</v>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="C6" s="0" t="n">
         <v>3</v>
       </c>
@@ -227,11 +236,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>8</v>
+      <c r="B7" s="2" t="n">
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>4</v>
@@ -241,30 +250,16 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>9</v>
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="n">
         <v>2</v>
       </c>
     </row>
